--- a/DOM_Banner/output/dept_banner/Avin Aggarwal_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Avin Aggarwal_2023.xlsx
@@ -1073,7 +1073,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Banner University Medical Center Tuscon, USA.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2170272972", "https://openalex.org/W2425239049", "https://openalex.org/W2086392903", "https://openalex.org/W2029364955", "https://openalex.org/W2603773853", "https://openalex.org/W2315085516", "https://openalex.org/W2316407790", "https://openalex.org/W2021156218", "https://openalex.org/W1929462032", "https://openalex.org/W2349096397")</t>
+          <t>c("https://openalex.org/W2067972578", "https://openalex.org/W2381279477", "https://openalex.org/W3016587774", "https://openalex.org/W2999920852", "https://openalex.org/W2088704621", "https://openalex.org/W3028983594", "https://openalex.org/W2006998504", "https://openalex.org/W2363227174", "https://openalex.org/W2073857279", "https://openalex.org/W2071852359")</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2603773853", "https://openalex.org/W2029364955", "https://openalex.org/W2070431839", "https://openalex.org/W2170272972", "https://openalex.org/W2425239049", "https://openalex.org/W2086392903", "https://openalex.org/W2315085516", "https://openalex.org/W2600217674", "https://openalex.org/W2316407790", "https://openalex.org/W2021156218")</t>
+          <t>c("https://openalex.org/W2067972578", "https://openalex.org/W2361862183", "https://openalex.org/W2383322307", "https://openalex.org/W2977786346", "https://openalex.org/W2000513236", "https://openalex.org/W4214718513", "https://openalex.org/W2387841438", "https://openalex.org/W2354945710", "https://openalex.org/W2359886812", "https://openalex.org/W2371570753")</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W4366141624", "https://openalex.org/W2567738959", "https://openalex.org/W2049440415", "https://openalex.org/W2384363657", "https://openalex.org/W2401666613", "https://openalex.org/W3030468689", "https://openalex.org/W2981857729", "https://openalex.org/W2351796763", "https://openalex.org/W2903040050", "https://openalex.org/W2019016109")</t>
+          <t>c("https://openalex.org/W2946169855", "https://openalex.org/W2001259376", "https://openalex.org/W2946736604", "https://openalex.org/W3009053689", "https://openalex.org/W4243336291", "https://openalex.org/W3045992245", "https://openalex.org/W2751446781", "https://openalex.org/W4229028869", "https://openalex.org/W2160735724", "https://openalex.org/W2019016109")</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Avin Aggarwal_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Avin Aggarwal_2023.xlsx
@@ -2825,22 +2825,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://openalex.org/S66441642</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0002-9270</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -2999,22 +2999,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://openalex.org/S66441642</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0002-9270</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Avin Aggarwal_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Avin Aggarwal_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,39 +452,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>University of Arizona College of Medicine – Tucson; Faculty of Medicine, Imperial College London, UK; Department of Medicine, Banner – University Medical Center, Tucson, Ariz; University of Arizona College of Medicine – Tucson; Lung &amp; Sleep Medicine, Orlando Health Medical Group, Fla; Department of Medicine, Banner – University Medical Center, Tucson, Ariz; University of Arizona College of Medicine – Tucson; Department of Medicine, Banner – University Medical Center, Tucson, Ariz; University of Arizona College of Medicine – Tucson</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4365812462</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Fatal Disseminated Coccidioidomycosis in Cirrhosis: A Case Series</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-07-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.04.004</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37068575</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.04.004</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,39 +539,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379790568</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>ENDOSCOPIC FUNDOPLICATION FOR POST-PERORAL ENDOSCOPIC MYOTOMY GASTROESOPHAGEAL REFLUX: FEASIBILITY AND OUTCOMES - A SYSTEMATIC REVIEW AND META-ANALYSIS</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Gastrointestinal Endoscopy</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.gie.2023.04.1518</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -569,35 +579,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.gie.2023.04.1518</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,39 +626,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379790710</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>EUS-GUIDED BILIARY DRAINAGE VERSUS ERCP GUIDED BILIARY DRAINAGE AS PRIMARY THERAPY FOR PATIENTS WITH MALIGNANT BILIARY OBSTRUCTION - A SYSTEMATIC REVIEW AND META-ANALYSIS</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Gastrointestinal Endoscopy</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.gie.2023.04.1444</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.gie.2023.04.1444</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,39 +713,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379800124</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>CHARACTERISTICS OF TOTAL NEOPLASTIC LESION BURDEN IN THOSE WITH ADVANCED NEOPLASIA WHEN ORIGINATING FROM AN MT-SDNA SCREENING COHORT COMPARED TO AN UPFRONT COLONOSCOPY COHORT</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Gastrointestinal Endoscopy</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.gie.2023.04.390</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.gie.2023.04.390</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,39 +800,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379802886</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>EUS-GUIDED BILIARY DRAINAGE VERSUS ERCP GUIDED BILIARY DRAINAGE AS PRIMARY THERAPY FOR PATIENTS WITH MALIGNANT BILIARY OBSTRUCTION - A SYSTEMATIC REVIEW AND META-ANALYSIS</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Gastrointestinal Endoscopy</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.gie.2023.04.1359</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -815,35 +840,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.gie.2023.04.1359</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,39 +887,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379803122</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>CHARACTERISTICS OF TOTAL NEOPLASTIC LESION BURDEN IN THOSE WITH ADVANCED NEOPLASIA WHEN ORIGINATING FROM AN MT-SDNA SCREENING COHORT COMPARED TO AN UPFRONT COLONOSCOPY COHORT</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Gastrointestinal Endoscopy</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.gie.2023.04.228</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.gie.2023.04.228</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,39 +974,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379803131</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>LONG TERM OUTCOMES OF G-POEM IN THE MANAGEMENT OF REFRACTORY GASTROPARESIS: A SYSTEMATIC REVIEW AND META ANALYSIS</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Gastrointestinal Endoscopy</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.gie.2023.04.1825</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -979,35 +1014,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.gie.2023.04.1825</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,39 +1061,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379928522</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>ENDOSCOPIC FUNDOPLICATION FOR POST-PERORAL ENDOSCOPIC MYOTOMY GASTROESOPHAGEAL REFLUX: FEASIBILITY AND OUTCOMES - A SYSTEMATIC REVIEW AND META-ANALYSIS</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Gastrointestinal Endoscopy</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.gie.2023.04.1626</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1061,35 +1101,40 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.gie.2023.04.1626</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1098,42 +1143,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Brendan Andres, Malini Chauhan, Elise M. Le Cam, Amar Vedamurthy, Joshua Melson, Avin Aggarwal</t>
+          <t>Brendan Andres, Radhika Babaria, S. Natali, Avin Aggarwal</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4383420413</t>
+          <t>Internal Medicine, The University of Arizona College of Medicine, Tucson, Arizona, USA; Gastroenterology and Hepatology, College of Medicine Tucson, The University of Arizona, Tucson, Arizona, USA; Medical Imaging, College of Medicine Tucson, The University of Arizona, Tucson, Arizona, USA; Gastroenterology and Hepatology, College of Medicine Tucson, The University of Arizona, Tucson, Arizona, USA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Tu1121 COMPARISON OF WITHDRAWAL TIME AND LESION DETECTION RATES IN SUBJECTS AT ABOVE-AVERAGE RISK FOR COLORECTAL NEOPLASIA</t>
+          <t>https://openalex.org/W4386457069</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>Hepatic hydropericardium diagnosed via pericardiocentesis bubble study improves after transjugular intrahepatic portosystemic shunt placement</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Gastroenterology</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Case Reports</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-5085(23)03278-x</t>
+          <t>BMJ</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1136/bcr-2023-256023</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1143,35 +1188,40 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-5085(23)03278-x</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37669825</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1136/bcr-2023-256023</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1180,42 +1230,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Elise M. Le Cam, Brendan Andres, Malini Chauhan, Amar Vedamurthy, Joshua Melson, Avin Aggarwal</t>
+          <t>Kanwal Bains, Aalam Sohal, Hunza Chaudhry, Ishandeep Singh, Shivam Kalra, Dino Dukovic, Avin Aggarwal</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4383420423</t>
+          <t>University of Arizona, Tucson, AZ;; Liver Institute Northwest, Seattle, WA;; University of California San Francisco, Fresno, CA;; Dayanand Medical College and Hospital, Ludhiana, Punjab, India;; Trident Medical Center, Charleston, SC;; Ross University School of Medicine, Maramar, FL.; University of Arizona, Tucson, AZ;</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mo1114 EFFECT OF INDICATION FOR COLONOSCOPY ON WITHDRAWAL TIME IN SUBJECTS WITH POSITIVE STOOL DNA TEST (COLOGUARD®)</t>
+          <t>https://openalex.org/W4387732653</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>S1832 Impact of Malnutrition in Patients Hospitalized With Celiac Disease: Analysis of National Inpatient Sample 2016-2020</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Gastroenterology</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-5085(23)02756-7</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.14309/01.ajg.0000956968.17948.69</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1225,35 +1275,40 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0016-5085(23)02756-7</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.14309/01.ajg.0000956968.17948.69</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1262,80 +1317,85 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kanwal Bains, Shivam Kalra, Inderjeet Singh, Jay Patel, Isha Kohli, Monisha Dhiman, Dino Dukovic, Aalam Sohal, Avin Aggarwal</t>
+          <t>Brandon Witten, Mahak Chauhan, Alex Heimbigner, Avin Aggarwal</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386219558</t>
+          <t>University of Arizona-Tucson College of Medicine, Tucson, AZ;; University of Arizona-Tucson College of Medicine, Tucson, AZ;; Banner University Medical Center, Tucson, AZ.; University of Arizona-Tucson College of Medicine, Tucson, AZ;</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Prevalence and Impact of Malnutrition in Hospitalizations Among Celiac Diseases: A Nationwide Analysis</t>
+          <t>https://openalex.org/W4387749934</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
+          <t>S4007 Not Your Usual Duodenal Pearls: Unveiling the True Nature of a Supposed Duodenal Type Follicular Lymphoma as a Classic Follicular Lymphoma</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cureus</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Cureus, Inc.</t>
+          <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7759/cureus.44247</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.14309/01.ajg.0000965668.62533.9d</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37772221</t>
-        </is>
-      </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7759/cureus.44247</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.14309/01.ajg.0000965668.62533.9d</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1344,80 +1404,85 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brendan Andres, Radhika Babaria, S. Natali, Avin Aggarwal</t>
+          <t>Soon Keng Cheong, Mahak Chauhan, Amar Vedamurthy, Avin Aggarwal</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386457069</t>
+          <t>Banner University Medical Center, Tucson, AZ;; Banner University Medical Center, Tucson, AZ;; Banner Health, Tucson, AZ;; University of Arizona College of Medicine, Tucson, AZ.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Hepatic hydropericardium diagnosed via pericardiocentesis bubble study improves after transjugular intrahepatic portosystemic shunt placement</t>
+          <t>https://openalex.org/W4387750045</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>S363 Adherence to Recommended Surveillance Colonoscopy Intervals in Average Risk Patients: Experience From a Tertiary Care Center</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Case Reports</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>BMJ</t>
+          <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1136/bcr-2023-256023</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.14309/01.ajg.0000951092.15492.b1</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37669825</t>
-        </is>
-      </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1136/bcr-2023-256023</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.14309/01.ajg.0000951092.15492.b1</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1426,80 +1491,85 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kanwal Bains, Aalam Sohal, Hunza Chaudhry, Ishandeep Singh, Shivam Kalra, Dino Dukovic, Avin Aggarwal</t>
+          <t>Mahak Chauhan, Soon Keng Cheong, Amar Vedamurthy, Joshua Melson, Avin Aggarwal</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387732653</t>
+          <t>University of Arizona-Tucson College of Medicine, Tucson, AZ;; University of Arizona-Banner Health Tucson, Tucson, AZ.; University of Arizona-Banner Health Tucson, Tucson, AZ.; University of Arizona-Banner Health Tucson, Tucson, AZ.; University of Arizona-Banner Health Tucson, Tucson, AZ.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>S1832 Impact of Malnutrition in Patients Hospitalized With Celiac Disease: Analysis of National Inpatient Sample 2016-2020</t>
+          <t>https://openalex.org/W4387752168</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>S175 Variability in Follow-up Recommendations After a Diagnostic Colonoscopy Performed for a Positive Multitarget Stool DNA Test</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.14309/01.ajg.0000956968.17948.69</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.14309/01.ajg.0000950340.44957.29</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.14309/01.ajg.0000956968.17948.69</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.14309/01.ajg.0000950340.44957.29</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1508,80 +1578,85 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Brandon Witten, Mahak Chauhan, Alex Heimbigner, Avin Aggarwal</t>
+          <t>Brendan Andres, Malini Chauhan, Elise M. Le Cam, Amar Vedamurthy, Joshua Melson, Avin Aggarwal</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387749934</t>
+          <t xml:space="preserve">; ; ; ; ; </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>S4007 Not Your Usual Duodenal Pearls: Unveiling the True Nature of a Supposed Duodenal Type Follicular Lymphoma as a Classic Follicular Lymphoma</t>
+          <t>https://openalex.org/W4383420413</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>Tu1121 COMPARISON OF WITHDRAWAL TIME AND LESION DETECTION RATES IN SUBJECTS AT ABOVE-AVERAGE RISK FOR COLORECTAL NEOPLASIA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>The American Journal of Gastroenterology</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Gastroenterology</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14309/01.ajg.0000965668.62533.9d</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/s0016-5085(23)03278-x</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.14309/01.ajg.0000965668.62533.9d</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s0016-5085(23)03278-x</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1590,80 +1665,85 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Soon Keng Cheong, Mahak Chauhan, Amar Vedamurthy, Avin Aggarwal</t>
+          <t>Elise M. Le Cam, Brendan Andres, Malini Chauhan, Amar Vedamurthy, Joshua Melson, Avin Aggarwal</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387750045</t>
+          <t xml:space="preserve">; ; ; ; ; </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>S363 Adherence to Recommended Surveillance Colonoscopy Intervals in Average Risk Patients: Experience From a Tertiary Care Center</t>
+          <t>https://openalex.org/W4383420423</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>Mo1114 EFFECT OF INDICATION FOR COLONOSCOPY ON WITHDRAWAL TIME IN SUBJECTS WITH POSITIVE STOOL DNA TEST (COLOGUARD®)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>The American Journal of Gastroenterology</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Gastroenterology</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14309/01.ajg.0000951092.15492.b1</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/s0016-5085(23)02756-7</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.14309/01.ajg.0000951092.15492.b1</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s0016-5085(23)02756-7</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1672,80 +1752,85 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mahak Chauhan, Soon Keng Cheong, Amar Vedamurthy, Joshua Melson, Avin Aggarwal</t>
+          <t>Kanwal Bains, Shivam Kalra, Inderjeet Singh, Jay Patel, Isha Kohli, Monisha Dhiman, Dino Dukovic, Aalam Sohal, Avin Aggarwal</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387752168</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>S175 Variability in Follow-up Recommendations After a Diagnostic Colonoscopy Performed for a Positive Multitarget Stool DNA Test</t>
+          <t>https://openalex.org/W4386219558</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>Prevalence and Impact of Malnutrition in Hospitalizations Among Celiac Diseases: A Nationwide Analysis</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>The American Journal of Gastroenterology</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Cureus</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14309/01.ajg.0000950340.44957.29</t>
+          <t>Cureus, Inc.</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.7759/cureus.44247</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14309/01.ajg.0000950340.44957.29</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37772221</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.7759/cureus.44247</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
